--- a/wireframe/wireframe (Autoguardado).xlsx
+++ b/wireframe/wireframe (Autoguardado).xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ro desk" sheetId="21" r:id="rId1"/>
     <sheet name="ro mob" sheetId="20" r:id="rId2"/>
-    <sheet name="lpdf desk" sheetId="19" r:id="rId3"/>
-    <sheet name="lpdf mob" sheetId="18" r:id="rId4"/>
-    <sheet name="sds desk" sheetId="17" r:id="rId5"/>
-    <sheet name="sds mob" sheetId="16" r:id="rId6"/>
-    <sheet name="cmi mob" sheetId="15" r:id="rId7"/>
-    <sheet name="cmi desk" sheetId="14" r:id="rId8"/>
-    <sheet name="Desktop" sheetId="1" r:id="rId9"/>
-    <sheet name="Mobile" sheetId="11" r:id="rId10"/>
-    <sheet name="pn desk" sheetId="12" r:id="rId11"/>
-    <sheet name="pn mob" sheetId="13" r:id="rId12"/>
+    <sheet name="Presupuesto" sheetId="22" r:id="rId3"/>
+    <sheet name="lpdf desk" sheetId="19" r:id="rId4"/>
+    <sheet name="lpdf mob" sheetId="18" r:id="rId5"/>
+    <sheet name="sds desk" sheetId="17" r:id="rId6"/>
+    <sheet name="sds mob" sheetId="16" r:id="rId7"/>
+    <sheet name="cmi mob" sheetId="15" r:id="rId8"/>
+    <sheet name="cmi desk" sheetId="14" r:id="rId9"/>
+    <sheet name="Desktop" sheetId="1" r:id="rId10"/>
+    <sheet name="Mobile" sheetId="11" r:id="rId11"/>
+    <sheet name="pn desk" sheetId="12" r:id="rId12"/>
+    <sheet name="pn mob" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="66">
   <si>
     <t>Contacto</t>
   </si>
@@ -162,12 +163,88 @@
   <si>
     <t xml:space="preserve">filtro sepia con descripcion </t>
   </si>
+  <si>
+    <t>Presupuesto Página de artista</t>
+  </si>
+  <si>
+    <t>Dominio</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Index onepage</t>
+  </si>
+  <si>
+    <t>Curriculum Vitae</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descuento por vinculo </t>
+  </si>
+  <si>
+    <t>Prespuesto final</t>
+  </si>
+  <si>
+    <t>Tiempo estimado de entrega: Duracion del codercurso</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>SEO y optimizacion de imágenes</t>
+  </si>
+  <si>
+    <t>Inicio con imagen de fondo y titulo, slide con acceso a proyectos,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biografia con imagen de perfil. Statement con imágenes. </t>
+  </si>
+  <si>
+    <t>Contacto funcional con php.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links a redes sociales, cv, galeria, ubicación, mail. </t>
+  </si>
+  <si>
+    <t>Crecion de fuente propia. *</t>
+  </si>
+  <si>
+    <t>Diseño y funcionalidad. *</t>
+  </si>
+  <si>
+    <t>*ver wireframes</t>
+  </si>
+  <si>
+    <t>Validez del presupuesto 15 dias</t>
+  </si>
+  <si>
+    <t>Fecha 13/04/2022</t>
+  </si>
+  <si>
+    <t>Cliente: Paz Secundini</t>
+  </si>
+  <si>
+    <t>Nro de proyecto: 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +307,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +407,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -424,11 +545,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -550,19 +718,129 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1548,10 +1826,10 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1752,49 +2030,49 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
       <c r="I12" s="96"/>
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
       <c r="I13" s="96"/>
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
       <c r="I14" s="96"/>
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
       <c r="I15" s="96"/>
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
       <c r="I16" s="96" t="s">
         <v>6</v>
       </c>
@@ -1803,9 +2081,9 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
       <c r="I17" s="96"/>
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
@@ -1824,42 +2102,42 @@
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
       <c r="I20" s="96"/>
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
       <c r="I21" s="96"/>
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
       <c r="I22" s="96" t="s">
         <v>6</v>
       </c>
@@ -1868,28 +2146,28 @@
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
       <c r="I23" s="96"/>
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
       <c r="I24" s="96"/>
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
@@ -2344,6 +2622,1142 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="103"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="103"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="103"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="44"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="44"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="44"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="44"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="44"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="44"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="44"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="44"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="44"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="44"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="44"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="44"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="44"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="44"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="44"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="105"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B38:D42"/>
+    <mergeCell ref="G38:I42"/>
+    <mergeCell ref="B46:D50"/>
+    <mergeCell ref="G46:I50"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E37:F37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -2539,10 +3953,10 @@
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="101"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="8"/>
       <c r="E14" s="53"/>
       <c r="F14" s="20"/>
@@ -2677,10 +4091,10 @@
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="101"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="8"/>
       <c r="E24" s="53"/>
       <c r="F24" s="17"/>
@@ -2891,10 +4305,10 @@
     </row>
     <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="101"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="8"/>
       <c r="E37" s="53"/>
       <c r="F37" s="17"/>
@@ -2905,47 +4319,47 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="2"/>
       <c r="F38" s="8"/>
       <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="2"/>
       <c r="F39" s="8"/>
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
       <c r="E40" s="2"/>
       <c r="F40" s="8"/>
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
       <c r="E41" s="2"/>
       <c r="F41" s="8"/>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
       <c r="E42" s="2"/>
       <c r="F42" s="8"/>
       <c r="J42" s="19"/>
@@ -2991,47 +4405,47 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
       <c r="E46" s="2"/>
       <c r="F46" s="8"/>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
       <c r="E47" s="2"/>
       <c r="F47" s="8"/>
       <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
       <c r="E48" s="2"/>
       <c r="F48" s="8"/>
       <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
       <c r="E49" s="2"/>
       <c r="F49" s="8"/>
       <c r="J49" s="19"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
       <c r="E50" s="2"/>
       <c r="F50" s="8"/>
       <c r="J50" s="19"/>
@@ -3080,11 +4494,11 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="103" t="s">
+      <c r="B54" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
       <c r="E54" s="2"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -3092,9 +4506,9 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="103"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
       <c r="E55" s="2"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -3102,9 +4516,9 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
       <c r="E56" s="2"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -3112,9 +4526,9 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
       <c r="E57" s="2"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -3122,9 +4536,9 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
       <c r="E58" s="2"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -3165,39 +4579,39 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="103"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3278,10 +4692,10 @@
     </row>
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
-      <c r="B74" s="102" t="s">
+      <c r="B74" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="102"/>
+      <c r="C74" s="105"/>
       <c r="D74" s="6"/>
       <c r="E74" s="22"/>
       <c r="F74" s="48"/>
@@ -3634,7 +5048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
@@ -3685,10 +5099,10 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -4536,7 +5950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
@@ -4573,10 +5987,10 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -5441,7 +6855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -5474,10 +6888,10 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -5558,28 +6972,28 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="97" t="s">
@@ -6230,6 +7644,534 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="149"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="127">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="128"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="131"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="120"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="127">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="128"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="137">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="138">
+        <v>5</v>
+      </c>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127">
+        <f>+B17*D17</f>
+        <v>5000</v>
+      </c>
+      <c r="H17" s="128"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="143">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="122"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="114">
+        <f>+G20+G17+G10+G6</f>
+        <v>18000</v>
+      </c>
+      <c r="H22" s="115"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="116"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="144">
+        <v>1</v>
+      </c>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="121">
+        <v>-18000</v>
+      </c>
+      <c r="H25" s="122"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="120"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124">
+        <v>0</v>
+      </c>
+      <c r="H27" s="124"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="120"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="120"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="120"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="G10:H15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
@@ -6280,10 +8222,10 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -6957,7 +8899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
@@ -6994,10 +8936,10 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -7715,7 +9657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
@@ -7766,10 +9708,10 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -8598,7 +10540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
@@ -8635,10 +10577,10 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -9400,7 +11342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
@@ -9437,10 +11379,10 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -10254,7 +12196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
@@ -10305,10 +12247,10 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -11162,1142 +13104,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
-  <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection sqref="A1:J70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="44"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="44"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="44"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="44"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="44"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="44"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="44"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="44"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="44"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="44"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" s="44"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" s="44"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="44"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="44"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="102"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="7"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="7"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I67" s="6"/>
-      <c r="J67" s="7"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="7"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="7"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G38:I42"/>
-    <mergeCell ref="B46:D50"/>
-    <mergeCell ref="G46:I50"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B38:D42"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>